--- a/src/demos/zdemo_excel15_02.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_02.w3mi.data.xlsx
@@ -16,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t/>
-  </si>
   <si>
     <t>Bold text</t>
   </si>
@@ -116,7 +113,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="64"/>
@@ -227,16 +224,6 @@
         </stop>
         <stop position="1">
           <color rgb="FFFFFFFF"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" bottom="0.5" top="0.5" right="0.5" left="0.5">
-        <stop position="0">
-          <color rgb="FFFFFFFF" indexed="64"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF0000FF"/>
         </stop>
       </gradientFill>
     </fill>
@@ -336,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,82 +345,13 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="0040E0D0"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -699,7 +617,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B2:E23"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,116 +625,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="0.0000000000000000E+00">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="5" t="s">
+    <row r="9" spans="1:5" ht="0.0000000000000000E+00">
+      <c r="B9" s="21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C17" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C19" s="17" t="s">
-        <v>16</v>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="C21" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C21" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
+      <c r="C23" s="20" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
-      <c r="C23" s="21" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/demos/zdemo_excel15_02.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_02.w3mi.data.xlsx
@@ -468,7 +468,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,9 +606,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
